--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\PycharmProjects\CE475\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\Documents\GitHub\CE475-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2D077-D667-4E33-8BA3-B5BCE7449D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1379D4-EA9B-483E-85DB-481BB2D2FF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SampleNo</t>
   </si>
@@ -49,6 +59,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Predicted</t>
   </si>
 </sst>
 </file>
@@ -84,7 +100,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +111,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,22 +132,270 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -136,6 +406,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0235A6F-D302-40EF-AFBB-CD609D17AACF}" name="Table1" displayName="Table1" ref="A1:J121" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:J121" xr:uid="{A0235A6F-D302-40EF-AFBB-CD609D17AACF}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I121">
+    <sortCondition ref="I1:I121"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{018197C0-5DD7-4C31-94ED-563C6226A2A4}" name="SampleNo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{ACCEE5AF-4936-40EC-83C4-D2199CEC20EA}" name="x1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2DC591A5-B159-47B7-9BA2-39D8B3C2B633}" name="x2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F916A119-9C50-4445-BB6A-7E44B4A36B52}" name="x3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{78427DD9-C191-4F38-8B16-32F35F50C11B}" name="x4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{24F61541-CBE4-4E94-A483-A02EF747F2D6}" name="x5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C4C34811-32E9-4341-8942-B0C20AEC736F}" name="x6" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{5136FD66-057E-473B-9E32-A716A5A28032}" name="Y" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{414AD1F3-1E91-45A9-9AE2-5E3D427B2865}" name="Index" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[SampleNo]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{FDC3BF19-362F-423B-9105-F14675B31EE5}" name="Predicted" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,3121 +701,3737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>37</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>65</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-18</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1.0629999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="I2" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>27</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>85</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>27</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>-24.09</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="I3" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>98</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>104</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>107</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="6">
         <v>34</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="6">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="6">
         <v>14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="6">
         <v>63</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="6">
         <v>-16</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="6">
         <v>34</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H6" s="7">
         <v>4091.6880000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="I6" s="6">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="1">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="1">
         <v>24</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="1">
         <v>83</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="1">
         <v>-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H7" s="2">
         <v>120.625</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="I7" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="1">
         <v>31</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="1">
         <v>44</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="1">
         <v>57</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="1">
         <v>-7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G8" s="1">
         <v>31</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H8" s="2">
         <v>2440.848</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="I8" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-11</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>106</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E10" s="1">
         <v>38</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H10" s="2">
         <v>704.94299999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="I10" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="1">
         <v>39</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D11" s="1">
         <v>29</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G11" s="1">
         <v>39</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H11" s="2">
         <v>-14.544</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="I11" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B12" s="1">
         <v>37</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C12" s="1">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E12" s="1">
         <v>33</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F12" s="1">
         <v>-3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G12" s="1">
         <v>37</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H12" s="2">
         <v>331.63200000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="I12" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C13" s="1">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D13" s="1">
         <v>30</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E13" s="1">
         <v>68</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F13" s="1">
         <v>15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H13" s="2">
         <v>-27.87</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="I13" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>8</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B14" s="1">
         <v>38</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E14" s="1">
         <v>54</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G14" s="1">
         <v>38</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H14" s="2">
         <v>-13.032</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="I14" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>9</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C15" s="1">
         <v>45</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E15" s="1">
         <v>53</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F15" s="1">
         <v>-7</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H15" s="2">
         <v>1360.2819999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="I15" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B16" s="1">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F16" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G16" s="1">
         <v>35</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H16" s="2">
         <v>-33.048000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="I16" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>11</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>103</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>109</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B19" s="6">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C19" s="6">
         <v>38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D19" s="6">
         <v>18</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E19" s="6">
         <v>84</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F19" s="6">
         <v>-14</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G19" s="6">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H19" s="7">
         <v>4221.9360000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="I19" s="6">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>12</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D20" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E20" s="1">
         <v>91</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G20" s="1">
         <v>14</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H20" s="2">
         <v>2930.5920000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="I20" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>13</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D21" s="1">
         <v>25</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E21" s="1">
         <v>62</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F21" s="1">
         <v>-20</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G21" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H21" s="2">
         <v>961</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="I21" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>14</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B22" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C22" s="1">
         <v>50</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E22" s="1">
         <v>44</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F22" s="1">
         <v>-14</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H22" s="2">
         <v>324.82099999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="I22" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>15</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B23" s="1">
         <v>38</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C23" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E23" s="1">
         <v>25</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F23" s="1">
         <v>-19</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G23" s="1">
         <v>38</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H23" s="2">
         <v>850.54399999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="I23" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>16</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D24" s="1">
         <v>27</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E24" s="1">
         <v>38</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F24" s="1">
         <v>-10</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G24" s="1">
         <v>17</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H24" s="2">
         <v>5202.8669999999993</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="I24" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>17</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B25" s="1">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C25" s="1">
         <v>47</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D25" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E25" s="1">
         <v>68</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F25" s="1">
         <v>16</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G25" s="1">
         <v>13</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H25" s="2">
         <v>-31.872</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="I25" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>18</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B26" s="1">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D26" s="1">
         <v>27</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E26" s="1">
         <v>74</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F26" s="1">
         <v>-3</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G26" s="1">
         <v>22</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H26" s="2">
         <v>6746.7840000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="I26" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>19</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>111</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C28" s="1">
         <v>28</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D28" s="1">
         <v>9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E28" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F28" s="1">
         <v>-5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G28" s="1">
         <v>25</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H28" s="2">
         <v>1703.616</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="I28" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>20</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B29" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C29" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D29" s="1">
         <v>28</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E29" s="1">
         <v>30</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F29" s="1">
         <v>18</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G29" s="1">
         <v>9</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H29" s="2">
         <v>-37.26</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="I29" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>21</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B30" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C30" s="1">
         <v>21</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D30" s="1">
         <v>9</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E30" s="1">
         <v>55</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G30" s="1">
         <v>23</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H30" s="2">
         <v>-19.079999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="I30" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>22</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C31" s="1">
         <v>41</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D31" s="1">
         <v>10</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E31" s="1">
         <v>96</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F31" s="1">
         <v>-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G31" s="1">
         <v>15</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H31" s="2">
         <v>3429</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="I31" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>23</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C32" s="1">
         <v>19</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D32" s="1">
         <v>15</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E32" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F32" s="1">
         <v>14</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G32" s="1">
         <v>30</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H32" s="2">
         <v>-27.524000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="I32" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>24</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B33" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C33" s="1">
         <v>36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D33" s="1">
         <v>32</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E33" s="1">
         <v>11</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F33" s="1">
         <v>15</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G33" s="1">
         <v>24</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H33" s="2">
         <v>-31.860000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="I33" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>25</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B34" s="1">
         <v>37</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C34" s="1">
         <v>34</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E34" s="1">
         <v>25</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F34" s="1">
         <v>-19</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G34" s="1">
         <v>37</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H34" s="2">
         <v>962.28800000000012</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="I34" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>26</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B35" s="1">
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C35" s="1">
         <v>14</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D35" s="1">
         <v>35</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E35" s="1">
         <v>76</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G35" s="1">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H35" s="2">
         <v>-21.560000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="I35" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>27</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B36" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D36" s="1">
         <v>11</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E36" s="1">
         <v>90</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F36" s="1">
         <v>-9</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G36" s="1">
         <v>29</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H36" s="2">
         <v>2667.2699999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="I36" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>28</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C37" s="1">
         <v>40</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D37" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E37" s="1">
         <v>28</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F37" s="1">
         <v>6</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G37" s="1">
         <v>5</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H37" s="2">
         <v>-12.299999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="I37" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>29</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B38" s="1">
         <v>35</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E38" s="1">
         <v>36</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F38" s="1">
         <v>7</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G38" s="1">
         <v>35</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H38" s="2">
         <v>-13.943999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="I38" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>30</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B39" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C39" s="1">
         <v>15</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D39" s="1">
         <v>25</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E39" s="1">
         <v>48</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F39" s="1">
         <v>-10</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G39" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H39" s="2">
         <v>7.56</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="I39" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>31</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C40" s="1">
         <v>8</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D40" s="1">
         <v>9</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E40" s="1">
         <v>59</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F40" s="1">
         <v>12</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H40" s="2">
         <v>-22.032</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="I40" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>32</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B41" s="1">
         <v>17</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D41" s="1">
         <v>8</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E41" s="1">
         <v>44</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F41" s="1">
         <v>-9</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G41" s="1">
         <v>17</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H41" s="2">
         <v>5114.433</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="I41" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>33</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C42" s="1">
         <v>7</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D42" s="1">
         <v>26</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E42" s="1">
         <v>29</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F42" s="1">
         <v>18</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G42" s="1">
         <v>40</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H42" s="2">
         <v>-34.488</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="I42" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>34</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B43" s="1">
         <v>10</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C43" s="1">
         <v>38</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E43" s="1">
         <v>70</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F43" s="1">
         <v>-20</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G43" s="1">
         <v>10</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H43" s="2">
         <v>1060</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="I43" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>35</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B44" s="1">
         <v>12</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C44" s="1">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D44" s="1">
         <v>9</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E44" s="1">
         <v>67</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F44" s="1">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G44" s="1">
         <v>12</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H44" s="2">
         <v>-32.512</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="I44" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>36</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B45" s="1">
         <v>22</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D45" s="1">
         <v>14</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E45" s="1">
         <v>49</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F45" s="1">
         <v>-14</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G45" s="1">
         <v>22</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H45" s="2">
         <v>2896.732</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="I45" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>37</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>110</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>120</v>
+      </c>
+      <c r="B47" s="1">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1">
+        <v>88</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>119</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B48" s="1">
         <v>7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C48" s="1">
         <v>44</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D48" s="1">
         <v>7</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E48" s="1">
         <v>26</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F48" s="1">
         <v>-6</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G48" s="1">
         <v>7</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H48" s="2">
         <v>318.64699999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="I48" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>38</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B49" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C49" s="1">
         <v>48</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F49" s="1">
         <v>-9</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G49" s="1">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H49" s="2">
         <v>65.343999999999994</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="I49" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>39</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B50" s="1">
         <v>13</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C50" s="1">
         <v>26</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D50" s="1">
         <v>20</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E50" s="1">
         <v>46</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F50" s="1">
         <v>-14</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G50" s="1">
         <v>13</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H50" s="2">
         <v>2324.4259999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="I50" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>40</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B51" s="1">
         <v>4</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C51" s="1">
         <v>16</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D51" s="1">
         <v>21</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E51" s="1">
         <v>82</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G51" s="1">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H51" s="2">
         <v>58.496000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="I51" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>41</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1">
+        <v>96</v>
+      </c>
+      <c r="F52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>25</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>118</v>
+      </c>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1">
+        <v>64</v>
+      </c>
+      <c r="F53" s="1">
+        <v>-17</v>
+      </c>
+      <c r="G53" s="1">
+        <v>25</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>117</v>
+      </c>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B54" s="1">
         <v>26</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C54" s="1">
         <v>35</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D54" s="1">
         <v>34</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E54" s="1">
         <v>33</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F54" s="1">
         <v>-19</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G54" s="1">
         <v>26</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H54" s="2">
         <v>10076.904</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="I54" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>42</v>
+      </c>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B55" s="1">
         <v>27</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C55" s="1">
         <v>21</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E55" s="1">
         <v>52</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F55" s="1">
         <v>16</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G55" s="1">
         <v>27</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H55" s="2">
         <v>-29.984000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="I55" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>43</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B56" s="1">
         <v>22</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C56" s="1">
         <v>13</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D56" s="1">
         <v>11</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E56" s="1">
         <v>64</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F56" s="1">
         <v>13</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G56" s="1">
         <v>22</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H56" s="2">
         <v>-24.673999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="I56" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>44</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B57" s="1">
         <v>17</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C57" s="1">
         <v>37</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D57" s="1">
         <v>19</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E57" s="1">
         <v>69</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G57" s="1">
         <v>17</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H57" s="2">
         <v>-11.916</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="I57" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>45</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B58" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C58" s="1">
         <v>7</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D58" s="1">
         <v>9</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E58" s="1">
         <v>79</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F58" s="1">
         <v>15</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G58" s="1">
         <v>2</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H58" s="2">
         <v>-28.56</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="I58" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>46</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B59" s="1">
         <v>26</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C59" s="1">
         <v>12</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D59" s="1">
         <v>27</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E59" s="1">
         <v>99</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F59" s="1">
         <v>-10</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G59" s="1">
         <v>26</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H59" s="2">
         <v>7803.9229999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="I59" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>47</v>
+      </c>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B60" s="1">
         <v>0</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C60" s="1">
         <v>3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D60" s="1">
         <v>26</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E60" s="1">
         <v>67</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="I60" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>48</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B61" s="1">
         <v>28</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C61" s="1">
         <v>13</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D61" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E61" s="1">
         <v>29</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F61" s="1">
         <v>-6</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G61" s="1">
         <v>28</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H61" s="2">
         <v>614.63600000000008</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="I61" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>49</v>
+      </c>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B62" s="1">
         <v>34</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C62" s="1">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D62" s="1">
         <v>15</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E62" s="1">
         <v>44</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F62" s="1">
         <v>10</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G62" s="1">
         <v>34</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H62" s="2">
         <v>-21.54</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="I62" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>50</v>
+      </c>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C63" s="1">
         <v>11</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D63" s="1">
         <v>35</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E63" s="1">
         <v>51</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F63" s="1">
         <v>16</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G63" s="1">
         <v>40</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H63" s="2">
         <v>-33.472000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="I63" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>51</v>
+      </c>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>102</v>
+      </c>
+      <c r="B64" s="1">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1">
+        <v>16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>101</v>
+      </c>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1">
+        <v>37</v>
+      </c>
+      <c r="C65" s="1">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1">
+        <v>16</v>
+      </c>
+      <c r="E65" s="1">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1">
+        <v>37</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>112</v>
+      </c>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B66" s="1">
         <v>4</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C66" s="1">
         <v>32</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D66" s="1">
         <v>21</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E66" s="1">
         <v>98</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F66" s="1">
         <v>-9</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G66" s="1">
         <v>4</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H66" s="2">
         <v>63.295999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="I66" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>52</v>
+      </c>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B67" s="1">
         <v>20</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C67" s="1">
         <v>13</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D67" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E67" s="1">
         <v>57</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F67" s="1">
         <v>9</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G67" s="1">
         <v>20</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H67" s="2">
         <v>-17.802</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="I67" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>53</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>114</v>
+      </c>
+      <c r="B68" s="1">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1">
+        <v>29</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-11</v>
+      </c>
+      <c r="G68" s="1">
+        <v>34</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>113</v>
+      </c>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B69" s="1">
         <v>0</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C69" s="1">
         <v>9</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D69" s="1">
         <v>24</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F69" s="1">
         <v>-5</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G69" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="I69" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>54</v>
+      </c>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B70" s="1">
         <v>34</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C70" s="1">
         <v>30</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D70" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E70" s="1">
         <v>78</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F70" s="1">
         <v>-18</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G70" s="1">
         <v>34</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H70" s="2">
         <v>68.543999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="I70" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>55</v>
+      </c>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B71" s="1">
         <v>12</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C71" s="1">
         <v>3</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D71" s="1">
         <v>21</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E71" s="1">
         <v>33</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F71" s="1">
         <v>-6</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G71" s="1">
         <v>12</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H71" s="2">
         <v>1603.5840000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="I71" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>56</v>
+      </c>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B72" s="1">
         <v>28</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C72" s="1">
         <v>20</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D72" s="1">
         <v>27</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E72" s="1">
         <v>2</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F72" s="1">
         <v>20</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G72" s="1">
         <v>28</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H72" s="2">
         <v>-42.480000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="I72" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>57</v>
+      </c>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B73" s="1">
         <v>33</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C73" s="1">
         <v>27</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D73" s="1">
         <v>33</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E73" s="1">
         <v>39</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F73" s="1">
         <v>-13</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G73" s="1">
         <v>33</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H73" s="2">
         <v>10791.66</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="I73" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>58</v>
+      </c>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>116</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>27</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>115</v>
+      </c>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B75" s="1">
         <v>32</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C75" s="1">
         <v>25</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D75" s="1">
         <v>14</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E75" s="1">
         <v>22</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F75" s="1">
         <v>-11</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G75" s="1">
         <v>32</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H75" s="2">
         <v>3553.1439999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="I75" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>59</v>
+      </c>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B76" s="1">
         <v>6</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C76" s="1">
         <v>22</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D76" s="1">
         <v>24</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E76" s="1">
         <v>12</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F76" s="1">
         <v>18</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G76" s="1">
         <v>6</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H76" s="2">
         <v>-33.012</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="I76" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>60</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B77" s="1">
         <v>16</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C77" s="1">
         <v>48</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D77" s="1">
         <v>28</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F77" s="1">
         <v>-13</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G77" s="1">
         <v>16</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H77" s="2">
         <v>4497.4080000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="I77" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>61</v>
+      </c>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B78" s="1">
         <v>28</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C78" s="1">
         <v>21</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D78" s="1">
         <v>28</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E78" s="1">
         <v>14</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F78" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G78" s="1">
         <v>28</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H78" s="2">
         <v>-10.73</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="I78" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>62</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B79" s="1">
         <v>21</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D79" s="1">
         <v>24</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E79" s="1">
         <v>65</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F79" s="1">
         <v>-18</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G79" s="1">
         <v>21</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H79" s="2">
         <v>5552.3040000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="I79" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>63</v>
+      </c>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>115</v>
+      </c>
+      <c r="B80" s="1">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1">
+        <v>37</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22</v>
+      </c>
+      <c r="E80" s="1">
+        <v>33</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>34</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>114</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B81" s="1">
         <v>30</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C81" s="1">
         <v>18</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D81" s="1">
         <v>23</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E81" s="1">
         <v>87</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F81" s="1">
         <v>-19</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G81" s="1">
         <v>30</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H81" s="2">
         <v>6315.0749999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="I81" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>64</v>
+      </c>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B82" s="1">
         <v>34</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C82" s="1">
         <v>24</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D82" s="1">
         <v>20</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E82" s="1">
         <v>67</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F82" s="1">
         <v>-13</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G82" s="1">
         <v>34</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H82" s="2">
         <v>5817.0199999999995</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="I82" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>65</v>
+      </c>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B83" s="1">
         <v>31</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C83" s="1">
         <v>14</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D83" s="1">
         <v>17</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E83" s="1">
         <v>43</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F83" s="1">
         <v>-17</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G83" s="1">
         <v>31</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H83" s="2">
         <v>4502.55</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="I83" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>66</v>
+      </c>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B84" s="1">
         <v>24</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C84" s="1">
         <v>14</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D84" s="1">
         <v>9</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E84" s="1">
         <v>6</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F84" s="1">
         <v>13</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G84" s="1">
         <v>24</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H84" s="2">
         <v>-24.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="I84" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>67</v>
+      </c>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B85" s="1">
         <v>32</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C85" s="1">
         <v>50</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D85" s="1">
         <v>4</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E85" s="1">
         <v>0</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F85" s="1">
         <v>18</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G85" s="1">
         <v>32</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H85" s="2">
         <v>-34.631999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="I85" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>68</v>
+      </c>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B86" s="1">
         <v>0</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C86" s="1">
         <v>48</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D86" s="1">
         <v>28</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E86" s="1">
         <v>83</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F86" s="1">
         <v>-12</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="I86" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>69</v>
+      </c>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B87" s="1">
         <v>40</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C87" s="1">
         <v>15</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D87" s="1">
         <v>28</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E87" s="1">
         <v>35</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F87" s="1">
         <v>18</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G87" s="1">
         <v>40</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H87" s="2">
         <v>-39.384</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="I87" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>70</v>
+      </c>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B88" s="1">
         <v>18</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C88" s="1">
         <v>49</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D88" s="1">
         <v>25</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E88" s="1">
         <v>98</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F88" s="1">
         <v>-1</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G88" s="1">
         <v>18</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H88" s="2">
         <v>5563.7280000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="I88" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>71</v>
+      </c>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B89" s="1">
         <v>28</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C89" s="1">
         <v>47</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D89" s="1">
         <v>16</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E89" s="1">
         <v>6</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F89" s="1">
         <v>-9</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G89" s="1">
         <v>28</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H89" s="2">
         <v>3690.72</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="I89" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>72</v>
+      </c>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B90" s="1">
         <v>16</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C90" s="1">
         <v>22</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D90" s="1">
         <v>26</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E90" s="1">
         <v>60</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F90" s="1">
         <v>14</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G90" s="1">
         <v>16</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H90" s="2">
         <v>-28.083999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="I90" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>73</v>
+      </c>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B91" s="1">
         <v>20</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C91" s="1">
         <v>37</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D91" s="1">
         <v>15</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E91" s="1">
         <v>34</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F91" s="1">
         <v>2</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G91" s="1">
         <v>20</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H91" s="2">
         <v>2601.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="I91" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>74</v>
+      </c>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B92" s="1">
         <v>9</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C92" s="1">
         <v>30</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D92" s="1">
         <v>9</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E92" s="1">
         <v>86</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F92" s="1">
         <v>-7</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G92" s="1">
         <v>9</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H92" s="2">
         <v>788.77800000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="I92" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>75</v>
+      </c>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B93" s="1">
         <v>39</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C93" s="1">
         <v>3</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D93" s="1">
         <v>9</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E93" s="1">
         <v>77</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F93" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G93" s="1">
         <v>39</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H93" s="2">
         <v>2758.5540000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="I93" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>76</v>
+      </c>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B94" s="1">
         <v>0</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C94" s="1">
         <v>1</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D94" s="1">
         <v>11</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E94" s="1">
         <v>17</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F94" s="1">
         <v>-10</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="I94" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>77</v>
+      </c>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B95" s="1">
         <v>2</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C95" s="1">
         <v>18</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D95" s="1">
         <v>3</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E95" s="1">
         <v>13</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F95" s="1">
         <v>-4</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G95" s="1">
         <v>2</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H95" s="2">
         <v>8.4480000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="I95" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>78</v>
+      </c>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B96" s="1">
         <v>10</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C96" s="1">
         <v>16</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D96" s="1">
         <v>8</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E96" s="1">
         <v>35</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F96" s="1">
         <v>3</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G96" s="1">
         <v>10</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H96" s="2">
         <v>931.99999999999989</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="I96" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>79</v>
+      </c>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B97" s="1">
         <v>39</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C97" s="1">
         <v>12</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D97" s="1">
         <v>28</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E97" s="1">
         <v>26</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F97" s="1">
         <v>17</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G97" s="1">
         <v>39</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H97" s="2">
         <v>-35.393999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="I97" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>80</v>
+      </c>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C98" s="1">
         <v>26</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D98" s="1">
         <v>22</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E98" s="1">
         <v>29</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F98" s="1">
         <v>-10</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G98" s="1">
         <v>1</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H98" s="2">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="I98" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>81</v>
+      </c>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B99" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C99" s="1">
         <v>28</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D99" s="1">
         <v>2</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E99" s="1">
         <v>69</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F99" s="1">
         <v>-16</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G99" s="1">
         <v>2</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H99" s="2">
         <v>8.3360000000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="I99" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>82</v>
+      </c>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B100" s="1">
         <v>25</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C100" s="1">
         <v>12</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D100" s="1">
         <v>22</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E100" s="1">
         <v>93</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F100" s="1">
         <v>-9</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G100" s="1">
         <v>25</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H100" s="2">
         <v>5812.2720000000008</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="I100" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>83</v>
+      </c>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B101" s="1">
         <v>5</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C101" s="1">
         <v>44</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D101" s="1">
         <v>30</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E101" s="1">
         <v>56</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F101" s="1">
         <v>-11</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G101" s="1">
         <v>5</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H101" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="I101" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>84</v>
+      </c>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B102" s="1">
         <v>17</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C102" s="1">
         <v>48</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D102" s="1">
         <v>8</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E102" s="1">
         <v>14</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F102" s="1">
         <v>-15</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G102" s="1">
         <v>17</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H102" s="2">
         <v>5040.7380000000003</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="I102" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>85</v>
+      </c>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B103" s="1">
         <v>6</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C103" s="1">
         <v>35</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D103" s="1">
         <v>10</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E103" s="1">
         <v>68</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F103" s="1">
         <v>-1</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G103" s="1">
         <v>6</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H103" s="2">
         <v>208.87199999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="I103" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>86</v>
+      </c>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>9</v>
+      </c>
+      <c r="D104" s="1">
+        <v>28</v>
+      </c>
+      <c r="E104" s="1">
+        <v>76</v>
+      </c>
+      <c r="F104" s="1">
+        <v>-20</v>
+      </c>
+      <c r="G104" s="1">
+        <v>6</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>102</v>
+      </c>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B105" s="1">
         <v>40</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C105" s="1">
         <v>28</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D105" s="1">
         <v>34</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E105" s="1">
         <v>23</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F105" s="1">
         <v>-6</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G105" s="1">
         <v>40</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H105" s="2">
         <v>12401.531999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="I105" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>87</v>
+      </c>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>29</v>
+      </c>
+      <c r="E106" s="1">
+        <v>100</v>
+      </c>
+      <c r="F106" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>105</v>
+      </c>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>109</v>
+      </c>
+      <c r="B107" s="1">
+        <v>38</v>
+      </c>
+      <c r="C107" s="1">
+        <v>47</v>
+      </c>
+      <c r="D107" s="1">
+        <v>29</v>
+      </c>
+      <c r="E107" s="1">
+        <v>36</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4</v>
+      </c>
+      <c r="G107" s="1">
+        <v>38</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>108</v>
+      </c>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1">
+        <v>34</v>
+      </c>
+      <c r="D108" s="1">
+        <v>29</v>
+      </c>
+      <c r="E108" s="1">
+        <v>81</v>
+      </c>
+      <c r="F108" s="1">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>17</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>116</v>
+      </c>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B109" s="1">
         <v>18</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C109" s="1">
         <v>50</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D109" s="1">
         <v>10</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E109" s="1">
         <v>96</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F109" s="1">
         <v>-19</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G109" s="1">
         <v>18</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H109" s="2">
         <v>5732.8559999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="I109" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>88</v>
+      </c>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B110" s="1">
         <v>8</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C110" s="1">
         <v>11</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D110" s="1">
         <v>35</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E110" s="1">
         <v>52</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F110" s="1">
         <v>-8</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G110" s="1">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H110" s="2">
         <v>531.45600000000002</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="I110" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>89</v>
+      </c>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B111" s="1">
         <v>5</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C111" s="1">
         <v>1</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D111" s="1">
         <v>26</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E111" s="1">
         <v>91</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F111" s="1">
         <v>9</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G111" s="1">
         <v>5</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H111" s="2">
         <v>-18.972000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="I111" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>90</v>
+      </c>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B112" s="1">
         <v>28</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C112" s="1">
         <v>15</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D112" s="1">
         <v>8</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E112" s="1">
         <v>51</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F112" s="1">
         <v>0</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G112" s="1">
         <v>28</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H112" s="2">
         <v>1694.3280000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="I112" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>91</v>
+      </c>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>101</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>46</v>
+      </c>
+      <c r="D113" s="1">
+        <v>30</v>
+      </c>
+      <c r="E113" s="1">
+        <v>32</v>
+      </c>
+      <c r="F113" s="1">
+        <v>5</v>
+      </c>
+      <c r="G113" s="1">
+        <v>8</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>100</v>
+      </c>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B114" s="1">
         <v>13</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C114" s="1">
         <v>33</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D114" s="1">
         <v>35</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E114" s="1">
         <v>96</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F114" s="1">
         <v>20</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G114" s="1">
         <v>13</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H114" s="2">
         <v>-42.08</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="I114" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>92</v>
+      </c>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B115" s="1">
         <v>21</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C115" s="1">
         <v>48</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D115" s="1">
         <v>14</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E115" s="1">
         <v>68</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F115" s="1">
         <v>-6</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G115" s="1">
         <v>21</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H115" s="2">
         <v>2642.3040000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="I115" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>93</v>
+      </c>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B116" s="1">
         <v>25</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C116" s="1">
         <v>28</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D116" s="1">
         <v>30</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E116" s="1">
         <v>63</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F116" s="1">
         <v>-14</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G116" s="1">
         <v>25</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H116" s="2">
         <v>8200</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="I116" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>94</v>
+      </c>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B117" s="1">
         <v>10</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C117" s="1">
         <v>27</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D117" s="1">
         <v>4</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E117" s="1">
         <v>78</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F117" s="1">
         <v>-2</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G117" s="1">
         <v>10</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H117" s="2">
         <v>1091</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="I117" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>95</v>
+      </c>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B118" s="1">
         <v>22</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C118" s="1">
         <v>3</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D118" s="1">
         <v>17</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E118" s="1">
         <v>55</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F118" s="1">
         <v>-18</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G118" s="1">
         <v>22</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H118" s="2">
         <v>3204.3319999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="I118" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>96</v>
+      </c>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B119" s="1">
         <v>23</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C119" s="1">
         <v>41</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D119" s="1">
         <v>27</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E119" s="1">
         <v>25</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F119" s="1">
         <v>15</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G119" s="1">
         <v>23</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H119" s="2">
         <v>-31.14</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="I119" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>97</v>
+      </c>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B120" s="1">
         <v>19</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C120" s="1">
         <v>25</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D120" s="1">
         <v>3</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E120" s="1">
         <v>39</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F120" s="1">
         <v>10</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G120" s="1">
         <v>19</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H120" s="2">
         <v>-19.96</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="I120" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>98</v>
+      </c>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B121" s="1">
         <v>27</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C121" s="1">
         <v>22</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D121" s="1">
         <v>2</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E121" s="1">
         <v>38</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F121" s="1">
         <v>-7</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G121" s="1">
         <v>27</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H121" s="2">
         <v>405.81600000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2">
-        <v>8</v>
-      </c>
-      <c r="C102" s="2">
-        <v>46</v>
-      </c>
-      <c r="D102" s="2">
-        <v>30</v>
-      </c>
-      <c r="E102" s="2">
-        <v>32</v>
-      </c>
-      <c r="F102" s="2">
-        <v>5</v>
-      </c>
-      <c r="G102" s="2">
-        <v>8</v>
-      </c>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2">
-        <v>10</v>
-      </c>
-      <c r="C103" s="2">
-        <v>23</v>
-      </c>
-      <c r="D103" s="2">
-        <v>16</v>
-      </c>
-      <c r="E103" s="2">
-        <v>27</v>
-      </c>
-      <c r="F103" s="2">
-        <v>13</v>
-      </c>
-      <c r="G103" s="2">
-        <v>10</v>
-      </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-      <c r="B104" s="2">
-        <v>6</v>
-      </c>
-      <c r="C104" s="2">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2">
-        <v>28</v>
-      </c>
-      <c r="E104" s="2">
-        <v>76</v>
-      </c>
-      <c r="F104" s="2">
-        <v>-20</v>
-      </c>
-      <c r="G104" s="2">
-        <v>6</v>
-      </c>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-      <c r="B105" s="2">
-        <v>11</v>
-      </c>
-      <c r="C105" s="2">
-        <v>31</v>
-      </c>
-      <c r="D105" s="2">
-        <v>3</v>
-      </c>
-      <c r="E105" s="2">
-        <v>46</v>
-      </c>
-      <c r="F105" s="2">
-        <v>-11</v>
-      </c>
-      <c r="G105" s="2">
-        <v>11</v>
-      </c>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="B106" s="2">
-        <v>12</v>
-      </c>
-      <c r="C106" s="2">
-        <v>27</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>98</v>
-      </c>
-      <c r="F106" s="2">
-        <v>20</v>
-      </c>
-      <c r="G106" s="2">
-        <v>12</v>
-      </c>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="C107" s="2">
-        <v>5</v>
-      </c>
-      <c r="D107" s="2">
-        <v>29</v>
-      </c>
-      <c r="E107" s="2">
-        <v>100</v>
-      </c>
-      <c r="F107" s="2">
-        <v>-3</v>
-      </c>
-      <c r="G107" s="2">
-        <v>1</v>
-      </c>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>2</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2">
-        <v>53</v>
-      </c>
-      <c r="F108" s="2">
-        <v>-11</v>
-      </c>
-      <c r="G108" s="2">
-        <v>2</v>
-      </c>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="B109" s="2">
-        <v>35</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>48</v>
-      </c>
-      <c r="F109" s="2">
-        <v>-11</v>
-      </c>
-      <c r="G109" s="2">
-        <v>35</v>
-      </c>
-      <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="B110" s="2">
-        <v>38</v>
-      </c>
-      <c r="C110" s="2">
-        <v>47</v>
-      </c>
-      <c r="D110" s="2">
-        <v>29</v>
-      </c>
-      <c r="E110" s="2">
-        <v>36</v>
-      </c>
-      <c r="F110" s="2">
-        <v>4</v>
-      </c>
-      <c r="G110" s="2">
-        <v>38</v>
-      </c>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="2">
-        <v>16</v>
-      </c>
-      <c r="C111" s="2">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2">
-        <v>31</v>
-      </c>
-      <c r="F111" s="2">
-        <v>18</v>
-      </c>
-      <c r="G111" s="2">
-        <v>16</v>
-      </c>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2">
-        <v>14</v>
-      </c>
-      <c r="C112" s="2">
-        <v>43</v>
-      </c>
-      <c r="D112" s="2">
-        <v>10</v>
-      </c>
-      <c r="E112" s="2">
-        <v>3</v>
-      </c>
-      <c r="F112" s="2">
-        <v>18</v>
-      </c>
-      <c r="G112" s="2">
-        <v>14</v>
-      </c>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="B113" s="2">
-        <v>23</v>
-      </c>
-      <c r="C113" s="2">
-        <v>15</v>
-      </c>
-      <c r="D113" s="2">
-        <v>6</v>
-      </c>
-      <c r="E113" s="2">
-        <v>54</v>
-      </c>
-      <c r="F113" s="2">
-        <v>15</v>
-      </c>
-      <c r="G113" s="2">
-        <v>23</v>
-      </c>
-      <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="B114" s="2">
-        <v>37</v>
-      </c>
-      <c r="C114" s="2">
-        <v>38</v>
-      </c>
-      <c r="D114" s="2">
-        <v>16</v>
-      </c>
-      <c r="E114" s="2">
-        <v>20</v>
-      </c>
-      <c r="F114" s="2">
-        <v>11</v>
-      </c>
-      <c r="G114" s="2">
-        <v>37</v>
-      </c>
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>34</v>
-      </c>
-      <c r="C115" s="2">
-        <v>26</v>
-      </c>
-      <c r="D115" s="2">
-        <v>17</v>
-      </c>
-      <c r="E115" s="2">
-        <v>29</v>
-      </c>
-      <c r="F115" s="2">
-        <v>-11</v>
-      </c>
-      <c r="G115" s="2">
-        <v>34</v>
-      </c>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="2">
-        <v>34</v>
-      </c>
-      <c r="C116" s="2">
-        <v>37</v>
-      </c>
-      <c r="D116" s="2">
-        <v>22</v>
-      </c>
-      <c r="E116" s="2">
-        <v>33</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-      <c r="G116" s="2">
-        <v>34</v>
-      </c>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="2">
-        <v>5</v>
-      </c>
-      <c r="C117" s="2">
-        <v>27</v>
-      </c>
-      <c r="D117" s="2">
-        <v>20</v>
-      </c>
-      <c r="E117" s="2">
-        <v>23</v>
-      </c>
-      <c r="F117" s="2">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2">
-        <v>5</v>
-      </c>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2">
-        <v>17</v>
-      </c>
-      <c r="C118" s="2">
-        <v>34</v>
-      </c>
-      <c r="D118" s="2">
-        <v>29</v>
-      </c>
-      <c r="E118" s="2">
-        <v>81</v>
-      </c>
-      <c r="F118" s="2">
-        <v>3</v>
-      </c>
-      <c r="G118" s="2">
-        <v>17</v>
-      </c>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="2">
-        <v>25</v>
-      </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>13</v>
-      </c>
-      <c r="E119" s="2">
-        <v>64</v>
-      </c>
-      <c r="F119" s="2">
-        <v>-17</v>
-      </c>
-      <c r="G119" s="2">
-        <v>25</v>
-      </c>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
-      <c r="B120" s="2">
-        <v>25</v>
-      </c>
-      <c r="C120" s="2">
-        <v>23</v>
-      </c>
-      <c r="D120" s="2">
-        <v>12</v>
-      </c>
-      <c r="E120" s="2">
-        <v>96</v>
-      </c>
-      <c r="F120" s="2">
-        <v>-2</v>
-      </c>
-      <c r="G120" s="2">
-        <v>25</v>
-      </c>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="B121" s="2">
-        <v>18</v>
-      </c>
-      <c r="C121" s="2">
-        <v>27</v>
-      </c>
-      <c r="D121" s="2">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2">
-        <v>88</v>
-      </c>
-      <c r="F121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G121" s="2">
-        <v>18</v>
-      </c>
-      <c r="H121" s="4"/>
+      <c r="I121" s="1">
+        <f>Table1[[#This Row],[SampleNo]]-1</f>
+        <v>99</v>
+      </c>
+      <c r="J121" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeal\Documents\GitHub\CE475-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B424FC3-3492-402D-91ED-CF1CA635FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5B29F-6D93-48AC-9426-F4AD15AE277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="12465" windowHeight="11790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="0-100" sheetId="3" r:id="rId2"/>
+    <sheet name="0-100 Regularized" sheetId="3" r:id="rId2"/>
     <sheet name="Original" sheetId="1" r:id="rId3"/>
     <sheet name="Analyze" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>x1</t>
   </si>
@@ -84,12 +84,15 @@
   <si>
     <t>x1*x3</t>
   </si>
+  <si>
+    <t>MAE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Monospaced"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -137,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -299,11 +308,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,386 +424,26 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <b val="0"/>
@@ -1197,6 +859,367 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1354,6 +1377,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1452,46 +1478,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0AB67355-7D14-4358-A23A-53A3B4F652FF}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0AB67355-7D14-4358-A23A-53A3B4F652FF}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="A1:H31" xr:uid="{0AB67355-7D14-4358-A23A-53A3B4F652FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{84E7E295-0D8C-42C0-BC45-4C56D1437518}" name="SN" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{A62F70AE-66CC-438C-B135-EA21F1B7D3C5}" name="x1" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{FDDA950F-8C78-4DE3-ACA2-A8B5C551AEDA}" name="x2" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{EBBEC8D8-C8AD-4C6A-A08A-0C57138722F7}" name="x3" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{67ACDF55-CC05-492D-B481-B7D23F47A20C}" name="x4" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{2B14A963-59D2-4A00-B424-016ACC401F2D}" name="x5" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{7EEBFE19-C224-495A-B9F6-2E142E7FA35B}" name="Y_A" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{5B4DDE7D-12D6-4AEC-842A-98C0C1113D0C}" name="Y_P" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{84E7E295-0D8C-42C0-BC45-4C56D1437518}" name="SN" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{A62F70AE-66CC-438C-B135-EA21F1B7D3C5}" name="x1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{FDDA950F-8C78-4DE3-ACA2-A8B5C551AEDA}" name="x2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{EBBEC8D8-C8AD-4C6A-A08A-0C57138722F7}" name="x3" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{67ACDF55-CC05-492D-B481-B7D23F47A20C}" name="x4" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{2B14A963-59D2-4A00-B424-016ACC401F2D}" name="x5" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{7EEBFE19-C224-495A-B9F6-2E142E7FA35B}" name="Y_A" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{5B4DDE7D-12D6-4AEC-842A-98C0C1113D0C}" name="Y_P" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E63D5C8-483E-46AD-855E-8A0D6F77713F}" name="Table24" displayName="Table24" ref="A1:L31" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E63D5C8-483E-46AD-855E-8A0D6F77713F}" name="Table24" displayName="Table24" ref="A1:L31" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="A1:L31" xr:uid="{9E63D5C8-483E-46AD-855E-8A0D6F77713F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
     <sortCondition descending="1" ref="G1:G31"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F83D0E13-F313-4047-9256-B4661E226CB3}" name="SN" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{590F1535-34AF-4A02-BAFB-809A45CC284E}" name="x1" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{ED901BF6-1053-4B91-A338-37600D8E66BD}" name="x2" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{5D442F37-4DB1-46D0-84F0-3E40207D85B5}" name="x3" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{98CEB834-ECFD-4536-AB69-4D9D287853EA}" name="x4" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{624FEFB1-D15B-4EBF-B7C4-65E71177CD31}" name="x5" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{DAB3415F-90DE-4572-8213-741D16870F60}" name="Y" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{12C85D72-A2FD-43CD-A6ED-584DB8D39E2D}" name="P_Y" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{533B5F05-21A5-4EF6-9C68-0AC125657DFA}" name="E" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{A5A2F08C-6D30-477A-934A-5FBC954380F4}" name="ABSE" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{2F46B84B-1F98-477E-A6B9-F4953D0ACC84}" name="x2*x3" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{F83D0E13-F313-4047-9256-B4661E226CB3}" name="SN" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{590F1535-34AF-4A02-BAFB-809A45CC284E}" name="x1" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{ED901BF6-1053-4B91-A338-37600D8E66BD}" name="x2" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{5D442F37-4DB1-46D0-84F0-3E40207D85B5}" name="x3" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{98CEB834-ECFD-4536-AB69-4D9D287853EA}" name="x4" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{624FEFB1-D15B-4EBF-B7C4-65E71177CD31}" name="x5" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{DAB3415F-90DE-4572-8213-741D16870F60}" name="Y" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{12C85D72-A2FD-43CD-A6ED-584DB8D39E2D}" name="P_Y" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{533B5F05-21A5-4EF6-9C68-0AC125657DFA}" name="E" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{A5A2F08C-6D30-477A-934A-5FBC954380F4}" name="ABSE" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{2F46B84B-1F98-477E-A6B9-F4953D0ACC84}" name="x2*x3" dataDxfId="39">
       <calculatedColumnFormula>Table24[[#This Row],[x2]]*Table24[[#This Row],[x3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F8A44CB7-6A59-4D7F-9C88-47E92E40C717}" name="x3*x4" dataDxfId="37">
+    <tableColumn id="11" xr3:uid="{F8A44CB7-6A59-4D7F-9C88-47E92E40C717}" name="x3*x4" dataDxfId="38">
       <calculatedColumnFormula>Table24[[#This Row],[x4]]*Table24[[#This Row],[x3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1500,23 +1526,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0235A6F-D302-40EF-AFBB-CD609D17AACF}" name="Table1" displayName="Table1" ref="A1:I122" totalsRowCount="1" headerRowDxfId="18" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0235A6F-D302-40EF-AFBB-CD609D17AACF}" name="Table1" displayName="Table1" ref="A1:I122" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
   <autoFilter ref="A1:I121" xr:uid="{A0235A6F-D302-40EF-AFBB-CD609D17AACF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I121">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I121">
     <sortCondition ref="A1:A121"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{018197C0-5DD7-4C31-94ED-563C6226A2A4}" name="SN" dataDxfId="9" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{ACCEE5AF-4936-40EC-83C4-D2199CEC20EA}" name="x1" dataDxfId="8" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2DC591A5-B159-47B7-9BA2-39D8B3C2B633}" name="x2" dataDxfId="7" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{F916A119-9C50-4445-BB6A-7E44B4A36B52}" name="x3" dataDxfId="6" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{78427DD9-C191-4F38-8B16-32F35F50C11B}" name="x4" dataDxfId="5" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{24F61541-CBE4-4E94-A483-A02EF747F2D6}" name="x5" dataDxfId="4" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{5136FD66-057E-473B-9E32-A716A5A28032}" name="Y" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FDC3BF19-362F-423B-9105-F14675B31EE5}" name="Y_P" dataDxfId="2" totalsRowDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{B23CA726-7668-4451-A5C0-B3C3EA318E85}" name="ABSE" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{018197C0-5DD7-4C31-94ED-563C6226A2A4}" name="SN" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{ACCEE5AF-4936-40EC-83C4-D2199CEC20EA}" name="x1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{2DC591A5-B159-47B7-9BA2-39D8B3C2B633}" name="x2" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{F916A119-9C50-4445-BB6A-7E44B4A36B52}" name="x3" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{78427DD9-C191-4F38-8B16-32F35F50C11B}" name="x4" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{24F61541-CBE4-4E94-A483-A02EF747F2D6}" name="x5" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{5136FD66-057E-473B-9E32-A716A5A28032}" name="Y" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{FDC3BF19-362F-423B-9105-F14675B31EE5}" name="Y_P" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{B23CA726-7668-4451-A5C0-B3C3EA318E85}" name="ABSE" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Table1[ABSE])/100</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1524,18 +1549,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1D4AE34-A6F5-4EC2-B836-FE8F12E22340}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B1D4AE34-A6F5-4EC2-B836-FE8F12E22340}" name="Table4" displayName="Table4" ref="A1:F32" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:F31" xr:uid="{B1D4AE34-A6F5-4EC2-B836-FE8F12E22340}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
     <sortCondition descending="1" ref="E1:E31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{65F5D78C-1051-4D8E-9F4B-1BC71A19FCAF}" name="SN" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{092B4E58-55BF-4B8C-A8C4-C5189ECE7012}" name="x1" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{76726A78-9416-44F6-A86C-47861312F2A3}" name="x3" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{834878DC-374C-4D7D-B642-7B0FD90294A1}" name="x5" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{DB8FD32F-020B-4FD0-9804-ADFF6B816470}" name="Y" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{A10257FC-A9DB-4EF5-8B89-479E28AB62B5}" name="x1*x3" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{65F5D78C-1051-4D8E-9F4B-1BC71A19FCAF}" name="SN" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{092B4E58-55BF-4B8C-A8C4-C5189ECE7012}" name="x1" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{76726A78-9416-44F6-A86C-47861312F2A3}" name="x3" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{834878DC-374C-4D7D-B642-7B0FD90294A1}" name="x5" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{DB8FD32F-020B-4FD0-9804-ADFF6B816470}" name="Y" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{A10257FC-A9DB-4EF5-8B89-479E28AB62B5}" name="x1*x3" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[x1]]*Table4[[#This Row],[x3]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1809,10 +1834,10 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="5" customWidth="1"/>
@@ -1826,7 +1851,7 @@
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
         <v>3</v>
       </c>
@@ -1875,7 +1900,7 @@
         <v>4091.6880000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -1898,7 +1923,7 @@
         <v>2440.848</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>8</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>331.63200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>13</v>
       </c>
@@ -1944,7 +1969,7 @@
         <v>4221.9360000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>17</v>
       </c>
@@ -1967,7 +1992,7 @@
         <v>850.54399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -1990,7 +2015,7 @@
         <v>6746.7840000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>21</v>
       </c>
@@ -2013,7 +2038,7 @@
         <v>1703.616</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>27</v>
       </c>
@@ -2036,7 +2061,7 @@
         <v>962.28800000000012</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>29</v>
       </c>
@@ -2059,7 +2084,7 @@
         <v>2667.2699999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>38</v>
       </c>
@@ -2082,7 +2107,7 @@
         <v>2896.732</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>43</v>
       </c>
@@ -2105,7 +2130,7 @@
         <v>10076.904</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>48</v>
       </c>
@@ -2128,7 +2153,7 @@
         <v>7803.9229999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>50</v>
       </c>
@@ -2151,7 +2176,7 @@
         <v>614.63600000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>56</v>
       </c>
@@ -2174,7 +2199,7 @@
         <v>68.543999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>59</v>
       </c>
@@ -2197,7 +2222,7 @@
         <v>10791.66</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>60</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>3553.1439999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>64</v>
       </c>
@@ -2243,7 +2268,7 @@
         <v>5552.3040000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>65</v>
       </c>
@@ -2266,7 +2291,7 @@
         <v>6315.0749999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>66</v>
       </c>
@@ -2289,7 +2314,7 @@
         <v>5817.0199999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>67</v>
       </c>
@@ -2312,7 +2337,7 @@
         <v>4502.55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="5">
         <v>73</v>
       </c>
@@ -2335,7 +2360,7 @@
         <v>3690.72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="5">
         <v>75</v>
       </c>
@@ -2358,7 +2383,7 @@
         <v>2601.06</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>77</v>
       </c>
@@ -2381,7 +2406,7 @@
         <v>2758.5540000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="5">
         <v>84</v>
       </c>
@@ -2404,7 +2429,7 @@
         <v>5812.2720000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>88</v>
       </c>
@@ -2427,7 +2452,7 @@
         <v>12401.531999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="5">
         <v>92</v>
       </c>
@@ -2450,7 +2475,7 @@
         <v>1694.3280000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>94</v>
       </c>
@@ -2473,7 +2498,7 @@
         <v>2642.3040000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>95</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="5">
         <v>97</v>
       </c>
@@ -2519,7 +2544,7 @@
         <v>3204.3319999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="5">
         <v>100</v>
       </c>
@@ -2556,10 +2581,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G31"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -2571,7 +2596,7 @@
     <col min="12" max="12" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="14">
         <v>88</v>
       </c>
@@ -2649,7 +2674,7 @@
         <v>2083.3333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="14">
         <v>59</v>
       </c>
@@ -2689,7 +2714,7 @@
         <v>3639.7058823529414</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="14">
         <v>43</v>
       </c>
@@ -2729,7 +2754,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="14">
         <v>95</v>
       </c>
@@ -2769,7 +2794,7 @@
         <v>5514.7058823529414</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="14">
         <v>48</v>
       </c>
@@ -2809,7 +2834,7 @@
         <v>7941.1764705882351</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="14">
         <v>20</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>5873.1617647058829</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="14">
         <v>65</v>
       </c>
@@ -2889,7 +2914,7 @@
         <v>5919.1176470588243</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="14">
         <v>66</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>3921.5686274509803</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="14">
         <v>84</v>
       </c>
@@ -2969,7 +2994,7 @@
         <v>6066.1764705882351</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="14">
         <v>64</v>
       </c>
@@ -3009,7 +3034,7 @@
         <v>4558.8235294117658</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="14">
         <v>67</v>
       </c>
@@ -3049,7 +3074,7 @@
         <v>2083.3333333333335</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="14">
         <v>13</v>
       </c>
@@ -3089,7 +3114,7 @@
         <v>4466.9117647058829</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="14">
         <v>3</v>
       </c>
@@ -3129,7 +3154,7 @@
         <v>2573.5294117647054</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="14">
         <v>73</v>
       </c>
@@ -3169,7 +3194,7 @@
         <v>147.05882352941174</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="14">
         <v>60</v>
       </c>
@@ -3209,7 +3234,7 @@
         <v>814.95098039215668</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="14">
         <v>97</v>
       </c>
@@ -3249,7 +3274,7 @@
         <v>2708.333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="14">
         <v>38</v>
       </c>
@@ -3289,7 +3314,7 @@
         <v>1973.0392156862745</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="14">
         <v>77</v>
       </c>
@@ -3329,7 +3354,7 @@
         <v>2040.4411764705887</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="14">
         <v>29</v>
       </c>
@@ -3369,7 +3394,7 @@
         <v>2931.9852941176468</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="14">
         <v>94</v>
       </c>
@@ -3409,7 +3434,7 @@
         <v>2787.9901960784314</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="14">
         <v>75</v>
       </c>
@@ -3449,7 +3474,7 @@
         <v>1424.6323529411766</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="14">
         <v>5</v>
       </c>
@@ -3489,7 +3514,7 @@
         <v>1654.4117647058824</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="14">
         <v>21</v>
       </c>
@@ -3529,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="14">
         <v>92</v>
       </c>
@@ -3569,7 +3594,7 @@
         <v>1176.4705882352939</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="14">
         <v>27</v>
       </c>
@@ -3609,7 +3634,7 @@
         <v>202.20588235294116</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="14">
         <v>17</v>
       </c>
@@ -3649,7 +3674,7 @@
         <v>202.20588235294116</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="14">
         <v>50</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>238.97058823529412</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="14">
         <v>100</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>214.46078431372544</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="14">
         <v>8</v>
       </c>
@@ -3769,7 +3794,7 @@
         <v>91.911764705882348</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="16">
         <v>56</v>
       </c>
@@ -3883,13 +3908,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q107" sqref="Q107"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="5" customWidth="1"/>
@@ -3897,13 +3922,12 @@
     <col min="4" max="4" width="4" style="5" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -3931,8 +3955,11 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3954,15 +3981,19 @@
       <c r="G2" s="2">
         <v>1.0629999999999999</v>
       </c>
-      <c r="H2" s="6">
-        <v>-3.4156900000000001</v>
+      <c r="H2" s="37">
+        <v>-5.4756978644205097</v>
       </c>
       <c r="I2" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>4.4786900000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.5386978644205094</v>
+      </c>
+      <c r="K2" s="36">
+        <f>SUM(Table1[ABSE])/COUNTA(Table1[ABSE])</f>
+        <v>72.455378717947184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3984,15 +4015,15 @@
       <c r="G3" s="2">
         <v>-24.09</v>
       </c>
-      <c r="H3" s="6">
-        <v>-22.147563999999999</v>
+      <c r="H3" s="37">
+        <v>-22.174622770919001</v>
       </c>
       <c r="I3" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.9424360000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9153772290809989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4014,15 +4045,15 @@
       <c r="G4" s="6">
         <v>4091.6880000000001</v>
       </c>
-      <c r="H4" s="6">
-        <v>3873.1646209999999</v>
+      <c r="H4" s="37">
+        <v>3842.1630030158199</v>
       </c>
       <c r="I4" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>218.5233790000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>249.52499698418023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4044,15 +4075,15 @@
       <c r="G5" s="6">
         <v>120.625</v>
       </c>
-      <c r="H5" s="6">
-        <v>89.705385000000007</v>
+      <c r="H5" s="37">
+        <v>96.484615264382398</v>
       </c>
       <c r="I5" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>30.919614999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24.140384735617602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4074,15 +4105,15 @@
       <c r="G6" s="6">
         <v>2440.848</v>
       </c>
-      <c r="H6" s="6">
-        <v>2468.8848389999998</v>
+      <c r="H6" s="37">
+        <v>2445.9075396870198</v>
       </c>
       <c r="I6" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>28.036838999999873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.0595396870198783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4104,15 +4135,15 @@
       <c r="G7" s="6">
         <v>704.94299999999998</v>
       </c>
-      <c r="H7" s="6">
-        <v>760.48456099999999</v>
+      <c r="H7" s="37">
+        <v>772.868094208103</v>
       </c>
       <c r="I7" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>55.541561000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67.925094208103019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4134,15 +4165,15 @@
       <c r="G8" s="6">
         <v>-14.544</v>
       </c>
-      <c r="H8" s="6">
-        <v>-16.231905000000001</v>
+      <c r="H8" s="37">
+        <v>-16.169272976680301</v>
       </c>
       <c r="I8" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.6879050000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6252729766803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4164,15 +4195,15 @@
       <c r="G9" s="6">
         <v>331.63200000000001</v>
       </c>
-      <c r="H9" s="6">
-        <v>409.14162700000003</v>
+      <c r="H9" s="37">
+        <v>481.23970322762199</v>
       </c>
       <c r="I9" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>77.509627000000023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149.60770322762198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4194,15 +4225,15 @@
       <c r="G10" s="6">
         <v>-27.87</v>
       </c>
-      <c r="H10" s="6">
-        <v>-30.03511</v>
+      <c r="H10" s="37">
+        <v>-30.181755829903899</v>
       </c>
       <c r="I10" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.1651099999999985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.3117558299038983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4224,15 +4255,15 @@
       <c r="G11" s="6">
         <v>-13.032</v>
       </c>
-      <c r="H11" s="6">
-        <v>-12.288133</v>
+      <c r="H11" s="37">
+        <v>-12.165706447187899</v>
       </c>
       <c r="I11" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.74386699999999983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.86629355281210074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4254,15 +4285,15 @@
       <c r="G12" s="6">
         <v>1360.2819999999999</v>
       </c>
-      <c r="H12" s="6">
-        <v>1402.7071289999999</v>
+      <c r="H12" s="37">
+        <v>1415.32693078644</v>
       </c>
       <c r="I12" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>42.42512899999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55.044930786440091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4284,15 +4315,15 @@
       <c r="G13" s="6">
         <v>-33.048000000000002</v>
       </c>
-      <c r="H13" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H13" s="37">
+        <v>-36.187105624142603</v>
       </c>
       <c r="I13" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.9027689999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.1391056241426014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4314,15 +4345,15 @@
       <c r="G14" s="6">
         <v>4221.9360000000006</v>
       </c>
-      <c r="H14" s="6">
-        <v>4092.9994620000002</v>
+      <c r="H14" s="37">
+        <v>4064.8520094024302</v>
       </c>
       <c r="I14" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>128.93653800000038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157.08399059757039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4344,15 +4375,15 @@
       <c r="G15" s="2">
         <v>2930.5920000000001</v>
       </c>
-      <c r="H15" s="6">
-        <v>2851.0697970000001</v>
+      <c r="H15" s="37">
+        <v>2859.3147682036602</v>
       </c>
       <c r="I15" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>79.52220299999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.277231796339947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4374,15 +4405,15 @@
       <c r="G16" s="2">
         <v>961</v>
       </c>
-      <c r="H16" s="6">
-        <v>1052.2676300000001</v>
+      <c r="H16" s="37">
+        <v>1065.0394873248199</v>
       </c>
       <c r="I16" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>91.267630000000054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>104.0394873248199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4404,15 +4435,15 @@
       <c r="G17" s="2">
         <v>324.82099999999997</v>
       </c>
-      <c r="H17" s="6">
-        <v>334.84547099999997</v>
+      <c r="H17" s="37">
+        <v>345.101777024201</v>
       </c>
       <c r="I17" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>10.024471000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20.280777024201029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4434,15 +4465,15 @@
       <c r="G18" s="2">
         <v>850.54399999999998</v>
       </c>
-      <c r="H18" s="6">
-        <v>926.99329699999998</v>
+      <c r="H18" s="37">
+        <v>988.29436680177503</v>
       </c>
       <c r="I18" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>76.449297000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137.75036680177504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4464,15 +4495,15 @@
       <c r="G19" s="2">
         <v>5202.8669999999993</v>
       </c>
-      <c r="H19" s="6">
-        <v>4989.7204739999997</v>
+      <c r="H19" s="37">
+        <v>4929.9963229818704</v>
       </c>
       <c r="I19" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>213.14652599999954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>272.87067701812884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4494,15 +4525,15 @@
       <c r="G20" s="2">
         <v>-31.872</v>
       </c>
-      <c r="H20" s="6">
-        <v>-32.006996000000001</v>
+      <c r="H20" s="37">
+        <v>-32.1835390946502</v>
       </c>
       <c r="I20" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.134996000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.31153909465020035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4524,15 +4555,15 @@
       <c r="G21" s="2">
         <v>6746.7840000000006</v>
       </c>
-      <c r="H21" s="6">
-        <v>6742.4849770000001</v>
+      <c r="H21" s="37">
+        <v>6753.4556857984498</v>
       </c>
       <c r="I21" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>4.2990230000004885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.671685798449289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4554,15 +4585,15 @@
       <c r="G22" s="2">
         <v>1703.616</v>
       </c>
-      <c r="H22" s="6">
-        <v>1738.238875</v>
+      <c r="H22" s="37">
+        <v>1720.89644495376</v>
       </c>
       <c r="I22" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>34.622875000000022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17.280444953760025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4584,15 +4615,15 @@
       <c r="G23" s="2">
         <v>-37.26</v>
       </c>
-      <c r="H23" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H23" s="37">
+        <v>-36.187105624142603</v>
       </c>
       <c r="I23" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.3092309999999969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0728943758573948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4614,15 +4645,16 @@
       <c r="G24" s="2">
         <v>-19.079999999999998</v>
       </c>
-      <c r="H24" s="6">
-        <v>-20.175678000000001</v>
+      <c r="H24" s="37">
+        <v>-20.2356722013926</v>
       </c>
       <c r="I24" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.095678000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.1556722013926013</v>
+      </c>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4644,15 +4676,16 @@
       <c r="G25" s="2">
         <v>3429</v>
       </c>
-      <c r="H25" s="6">
-        <v>3481.2406089999999</v>
+      <c r="H25" s="37">
+        <v>3452.0445794198199</v>
       </c>
       <c r="I25" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>52.240608999999949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23.044579419819911</v>
+      </c>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4674,15 +4707,16 @@
       <c r="G26" s="2">
         <v>-27.524000000000001</v>
       </c>
-      <c r="H26" s="6">
-        <v>-28.063223000000001</v>
+      <c r="H26" s="37">
+        <v>-28.065345474022401</v>
       </c>
       <c r="I26" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.53922299999999979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.54134547402239974</v>
+      </c>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4704,15 +4738,15 @@
       <c r="G27" s="2">
         <v>-31.860000000000003</v>
       </c>
-      <c r="H27" s="6">
-        <v>-30.03511</v>
+      <c r="H27" s="37">
+        <v>-30.022763792179902</v>
       </c>
       <c r="I27" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.8248900000000035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.8372362078201014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4734,15 +4768,15 @@
       <c r="G28" s="2">
         <v>962.28800000000012</v>
       </c>
-      <c r="H28" s="6">
-        <v>903.42638199999999</v>
+      <c r="H28" s="37">
+        <v>897.39643426959105</v>
       </c>
       <c r="I28" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>58.861618000000135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64.89156573040907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4764,15 +4798,15 @@
       <c r="G29" s="2">
         <v>-21.560000000000002</v>
       </c>
-      <c r="H29" s="6">
-        <v>-20.175678000000001</v>
+      <c r="H29" s="37">
+        <v>-20.2356722013926</v>
       </c>
       <c r="I29" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.3843220000000009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3243277986074027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4794,15 +4828,15 @@
       <c r="G30" s="2">
         <v>2667.2699999999995</v>
       </c>
-      <c r="H30" s="6">
-        <v>2591.8754829999998</v>
+      <c r="H30" s="37">
+        <v>2565.6963100743001</v>
       </c>
       <c r="I30" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>75.394516999999723</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101.57368992569945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4824,15 +4858,15 @@
       <c r="G31" s="2">
         <v>-12.299999999999999</v>
       </c>
-      <c r="H31" s="6">
-        <v>-12.288133</v>
+      <c r="H31" s="37">
+        <v>-12.405998928762701</v>
       </c>
       <c r="I31" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.186699999999874E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.10599892876270189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4854,15 +4888,15 @@
       <c r="G32" s="2">
         <v>-13.943999999999999</v>
       </c>
-      <c r="H32" s="6">
-        <v>-14.260019</v>
+      <c r="H32" s="37">
+        <v>-14.3634172469201</v>
       </c>
       <c r="I32" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.31601900000000072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.41941724692010141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4884,15 +4918,15 @@
       <c r="G33" s="2">
         <v>7.56</v>
       </c>
-      <c r="H33" s="6">
-        <v>-18.503910000000001</v>
+      <c r="H33" s="37">
+        <v>-24.668054948739201</v>
       </c>
       <c r="I33" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>26.06391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32.228054948739199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4914,15 +4948,15 @@
       <c r="G34" s="2">
         <v>-22.032</v>
       </c>
-      <c r="H34" s="6">
-        <v>-24.119451000000002</v>
+      <c r="H34" s="37">
+        <v>-24.150508837707498</v>
       </c>
       <c r="I34" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.0874510000000015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1185088377074983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4944,15 +4978,15 @@
       <c r="G35" s="2">
         <v>5114.433</v>
       </c>
-      <c r="H35" s="6">
-        <v>4989.7204739999997</v>
+      <c r="H35" s="37">
+        <v>4929.9963229818704</v>
       </c>
       <c r="I35" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>124.71252600000025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184.43667701812956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4974,15 +5008,15 @@
       <c r="G36" s="2">
         <v>-34.488</v>
       </c>
-      <c r="H36" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H36" s="37">
+        <v>-36.232957457713901</v>
       </c>
       <c r="I36" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.4627690000000015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.7449574577139018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5004,15 +5038,15 @@
       <c r="G37" s="2">
         <v>1060</v>
       </c>
-      <c r="H37" s="6">
-        <v>1052.2676300000001</v>
+      <c r="H37" s="37">
+        <v>1052.9369469830499</v>
       </c>
       <c r="I37" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>7.7323699999999462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.0630530169501071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5034,15 +5068,15 @@
       <c r="G38" s="2">
         <v>-32.512</v>
       </c>
-      <c r="H38" s="6">
-        <v>-32.006996000000001</v>
+      <c r="H38" s="37">
+        <v>-32.225269092772898</v>
       </c>
       <c r="I38" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.50500399999999956</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.2867309072271027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5064,15 +5098,15 @@
       <c r="G39" s="2">
         <v>2896.732</v>
       </c>
-      <c r="H39" s="6">
-        <v>2719.0921149999999</v>
+      <c r="H39" s="37">
+        <v>2695.1253076610601</v>
       </c>
       <c r="I39" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>177.63988500000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>201.60669233893987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5094,15 +5128,15 @@
       <c r="G40" s="2">
         <v>318.64699999999999</v>
       </c>
-      <c r="H40" s="6">
-        <v>334.84547099999997</v>
+      <c r="H40" s="37">
+        <v>334.41294829111001</v>
       </c>
       <c r="I40" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>16.198470999999984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15.765948291110021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5124,15 +5158,15 @@
       <c r="G41" s="2">
         <v>65.343999999999994</v>
       </c>
-      <c r="H41" s="6">
-        <v>23.546068000000002</v>
+      <c r="H41" s="37">
+        <v>18.333787624276201</v>
       </c>
       <c r="I41" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>41.797931999999989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47.010212375723796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5154,15 +5188,15 @@
       <c r="G42" s="2">
         <v>2324.4259999999999</v>
       </c>
-      <c r="H42" s="6">
-        <v>2297.5976519999999</v>
+      <c r="H42" s="37">
+        <v>2300.7930676400001</v>
       </c>
       <c r="I42" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>26.828348000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23.632932359999813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5184,15 +5218,15 @@
       <c r="G43" s="2">
         <v>58.496000000000002</v>
       </c>
-      <c r="H43" s="6">
-        <v>23.546068000000002</v>
+      <c r="H43" s="37">
+        <v>19.071494526165498</v>
       </c>
       <c r="I43" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>34.949932000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>39.4245054738345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5214,15 +5248,15 @@
       <c r="G44" s="2">
         <v>10076.904</v>
       </c>
-      <c r="H44" s="6">
-        <v>10121.316817000001</v>
+      <c r="H44" s="37">
+        <v>10038.4668758525</v>
       </c>
       <c r="I44" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>44.412817000000359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38.437124147500072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5244,15 +5278,15 @@
       <c r="G45" s="2">
         <v>-29.984000000000002</v>
       </c>
-      <c r="H45" s="6">
-        <v>-32.006996000000001</v>
+      <c r="H45" s="37">
+        <v>-32.225269092772898</v>
       </c>
       <c r="I45" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.0229959999999991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.241269092772896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5274,15 +5308,15 @@
       <c r="G46" s="2">
         <v>-24.673999999999999</v>
       </c>
-      <c r="H46" s="6">
-        <v>-26.091336999999999</v>
+      <c r="H46" s="37">
+        <v>-26.2137365453613</v>
       </c>
       <c r="I46" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.4173369999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5397365453613006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5304,15 +5338,15 @@
       <c r="G47" s="2">
         <v>-11.916</v>
       </c>
-      <c r="H47" s="6">
-        <v>-12.288133</v>
+      <c r="H47" s="37">
+        <v>-12.186827268067599</v>
       </c>
       <c r="I47" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.37213299999999983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.27082726806759894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5334,15 +5368,15 @@
       <c r="G48" s="2">
         <v>-28.56</v>
       </c>
-      <c r="H48" s="6">
-        <v>-30.03511</v>
+      <c r="H48" s="37">
+        <v>-30.2214249103024</v>
       </c>
       <c r="I48" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.4751100000000008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6614249103024008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5364,15 +5398,15 @@
       <c r="G49" s="2">
         <v>7803.9229999999998</v>
       </c>
-      <c r="H49" s="6">
-        <v>7382.3848390000003</v>
+      <c r="H49" s="37">
+        <v>7317.8874402227202</v>
       </c>
       <c r="I49" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>421.53816099999949</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>486.03555977727956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5394,15 +5428,15 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
-        <v>29.733923000000001</v>
+      <c r="H50" s="37">
+        <v>43.0194898985009</v>
       </c>
       <c r="I50" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>29.733923000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43.0194898985009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5424,15 +5458,15 @@
       <c r="G51" s="2">
         <v>614.63600000000008</v>
       </c>
-      <c r="H51" s="6">
-        <v>554.314435</v>
+      <c r="H51" s="37">
+        <v>554.10728487229699</v>
       </c>
       <c r="I51" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>60.321565000000078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60.528715127703094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5454,15 +5488,15 @@
       <c r="G52" s="2">
         <v>-21.54</v>
       </c>
-      <c r="H52" s="6">
-        <v>-20.175678000000001</v>
+      <c r="H52" s="37">
+        <v>-20.202203997949699</v>
       </c>
       <c r="I52" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.3643219999999978</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3377960020503004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5484,15 +5518,15 @@
       <c r="G53" s="2">
         <v>-33.472000000000001</v>
       </c>
-      <c r="H53" s="6">
-        <v>-32.006996000000001</v>
+      <c r="H53" s="37">
+        <v>-32.099030002255802</v>
       </c>
       <c r="I53" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.4650040000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3729699977441996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5514,15 +5548,15 @@
       <c r="G54" s="2">
         <v>63.295999999999999</v>
       </c>
-      <c r="H54" s="6">
-        <v>23.546068000000002</v>
+      <c r="H54" s="37">
+        <v>19.071494526165498</v>
       </c>
       <c r="I54" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>39.749932000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44.224505473834498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5544,15 +5578,15 @@
       <c r="G55" s="2">
         <v>-17.802</v>
       </c>
-      <c r="H55" s="6">
-        <v>-18.203792</v>
+      <c r="H55" s="37">
+        <v>-18.200090232348298</v>
       </c>
       <c r="I55" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.40179200000000037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.39809023234829866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5574,15 +5608,15 @@
       <c r="G56" s="2">
         <v>0</v>
       </c>
-      <c r="H56" s="6">
-        <v>29.733923000000001</v>
+      <c r="H56" s="37">
+        <v>43.0194898985009</v>
       </c>
       <c r="I56" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>29.733923000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43.0194898985009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5604,15 +5638,15 @@
       <c r="G57" s="2">
         <v>68.543999999999997</v>
       </c>
-      <c r="H57" s="6">
-        <v>118.654977</v>
+      <c r="H57" s="37">
+        <v>114.300378318574</v>
       </c>
       <c r="I57" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>50.110977000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45.756378318574008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5634,15 +5668,15 @@
       <c r="G58" s="2">
         <v>1603.5840000000001</v>
       </c>
-      <c r="H58" s="6">
-        <v>1816.3136159999999</v>
+      <c r="H58" s="37">
+        <v>1821.5411788571</v>
       </c>
       <c r="I58" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>212.72961599999985</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217.95717885709996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5664,15 +5698,15 @@
       <c r="G59" s="2">
         <v>-42.480000000000004</v>
       </c>
-      <c r="H59" s="6">
-        <v>-39.894540999999997</v>
+      <c r="H59" s="37">
+        <v>-40.041281299345798</v>
       </c>
       <c r="I59" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.5854590000000073</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.4387187006542064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5694,15 +5728,15 @@
       <c r="G60" s="2">
         <v>10791.66</v>
       </c>
-      <c r="H60" s="6">
-        <v>10879.660125</v>
+      <c r="H60" s="37">
+        <v>10945.6890873375</v>
       </c>
       <c r="I60" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>88.00012500000048</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>154.02908733749973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5724,15 +5758,15 @@
       <c r="G61" s="2">
         <v>3553.1439999999998</v>
       </c>
-      <c r="H61" s="6">
-        <v>3711.2658080000001</v>
+      <c r="H61" s="37">
+        <v>3763.0815240319098</v>
       </c>
       <c r="I61" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>158.12180800000033</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209.93752403191002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5754,15 +5788,15 @@
       <c r="G62" s="2">
         <v>-33.012</v>
       </c>
-      <c r="H62" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H62" s="37">
+        <v>-36.0701556508008</v>
       </c>
       <c r="I62" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.9387690000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.0581556508007992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5784,15 +5818,15 @@
       <c r="G63" s="2">
         <v>4497.4080000000004</v>
       </c>
-      <c r="H63" s="6">
-        <v>4192.6206480000001</v>
+      <c r="H63" s="37">
+        <v>4176.1813567146701</v>
       </c>
       <c r="I63" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>304.78735200000028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321.22664328533028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5814,15 +5848,15 @@
       <c r="G64" s="2">
         <v>-10.73</v>
       </c>
-      <c r="H64" s="6">
-        <v>-10.316246</v>
+      <c r="H64" s="37">
+        <v>-10.257838935258199</v>
       </c>
       <c r="I64" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.41375400000000084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.47216106474180108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5844,15 +5878,15 @@
       <c r="G65" s="2">
         <v>5552.3040000000001</v>
       </c>
-      <c r="H65" s="6">
-        <v>5559.4861529999998</v>
+      <c r="H65" s="37">
+        <v>5547.5595583801996</v>
       </c>
       <c r="I65" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>7.1821529999997438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.7444416198004546</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5874,15 +5908,15 @@
       <c r="G66" s="2">
         <v>6315.0749999999998</v>
       </c>
-      <c r="H66" s="6">
-        <v>6489.9094990000003</v>
+      <c r="H66" s="37">
+        <v>6552.8037260474102</v>
       </c>
       <c r="I66" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>174.83449900000051</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>237.72872604741042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5904,15 +5938,15 @@
       <c r="G67" s="2">
         <v>5817.0199999999995</v>
       </c>
-      <c r="H67" s="6">
-        <v>5877.6404769999999</v>
+      <c r="H67" s="37">
+        <v>5882.7002479759003</v>
       </c>
       <c r="I67" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>60.620477000000392</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65.680247975900784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5934,15 +5968,15 @@
       <c r="G68" s="2">
         <v>4502.55</v>
       </c>
-      <c r="H68" s="6">
-        <v>4562.5928899999999</v>
+      <c r="H68" s="37">
+        <v>4574.0142693193202</v>
       </c>
       <c r="I68" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>60.042889999999716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71.46426931932001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5964,15 +5998,15 @@
       <c r="G69" s="2">
         <v>-24.7</v>
       </c>
-      <c r="H69" s="6">
-        <v>-26.091336999999999</v>
+      <c r="H69" s="37">
+        <v>-26.142341529438301</v>
       </c>
       <c r="I69" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.391337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.442341529438302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5994,15 +6028,15 @@
       <c r="G70" s="2">
         <v>-34.631999999999998</v>
       </c>
-      <c r="H70" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H70" s="37">
+        <v>-36.0701556508008</v>
       </c>
       <c r="I70" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.3187690000000032</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.4381556508008018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6024,15 +6058,15 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-      <c r="H71" s="6">
-        <v>29.733923000000001</v>
+      <c r="H71" s="37">
+        <v>27.636156766688298</v>
       </c>
       <c r="I71" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>29.733923000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27.636156766688298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6054,15 +6088,15 @@
       <c r="G72" s="2">
         <v>-39.384</v>
       </c>
-      <c r="H72" s="6">
-        <v>-35.950769000000001</v>
+      <c r="H72" s="37">
+        <v>-35.344818499242301</v>
       </c>
       <c r="I72" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>3.4332309999999993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0391815007576994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6084,15 +6118,15 @@
       <c r="G73" s="2">
         <v>5563.7280000000001</v>
       </c>
-      <c r="H73" s="6">
-        <v>5877.050647</v>
+      <c r="H73" s="37">
+        <v>5985.8091807538403</v>
       </c>
       <c r="I73" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>313.32264699999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>422.08118075384027</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6114,15 +6148,15 @@
       <c r="G74" s="2">
         <v>3690.72</v>
       </c>
-      <c r="H74" s="6">
-        <v>3945.0782869999998</v>
+      <c r="H74" s="37">
+        <v>3961.7156209514501</v>
       </c>
       <c r="I74" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>254.35828700000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>270.99562095145029</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6144,15 +6178,15 @@
       <c r="G75" s="2">
         <v>-28.083999999999996</v>
       </c>
-      <c r="H75" s="6">
-        <v>-28.063223000000001</v>
+      <c r="H75" s="37">
+        <v>-27.712958692931</v>
       </c>
       <c r="I75" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.0776999999995382E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.37104130706899596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6174,15 +6208,15 @@
       <c r="G76" s="2">
         <v>2601.06</v>
       </c>
-      <c r="H76" s="6">
-        <v>2746.1310859999999</v>
+      <c r="H76" s="37">
+        <v>2764.0382721353699</v>
       </c>
       <c r="I76" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>145.07108599999992</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162.97827213536993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6204,15 +6238,15 @@
       <c r="G77" s="2">
         <v>788.77800000000002</v>
       </c>
-      <c r="H77" s="6">
-        <v>760.48456099999999</v>
+      <c r="H77" s="37">
+        <v>752.05337542865504</v>
       </c>
       <c r="I77" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>28.293439000000035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36.724624571344975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6234,15 +6268,15 @@
       <c r="G78" s="2">
         <v>2758.5540000000001</v>
       </c>
-      <c r="H78" s="6">
-        <v>2636.182503</v>
+      <c r="H78" s="37">
+        <v>2607.5332548081401</v>
       </c>
       <c r="I78" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>122.37149700000009</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>151.02074519185999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6264,15 +6298,15 @@
       <c r="G79" s="2">
         <v>0</v>
       </c>
-      <c r="H79" s="6">
-        <v>29.733923000000001</v>
+      <c r="H79" s="37">
+        <v>27.636156766688298</v>
       </c>
       <c r="I79" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>29.733923000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27.636156766688298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6294,15 +6328,15 @@
       <c r="G80" s="2">
         <v>8.4480000000000004</v>
       </c>
-      <c r="H80" s="6">
-        <v>-18.503910000000001</v>
+      <c r="H80" s="37">
+        <v>-5.6306731627643298</v>
       </c>
       <c r="I80" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>26.951910000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14.07867316276433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6324,15 +6358,15 @@
       <c r="G81" s="2">
         <v>931.99999999999989</v>
       </c>
-      <c r="H81" s="6">
-        <v>1052.2676300000001</v>
+      <c r="H81" s="37">
+        <v>1041.0957351161501</v>
       </c>
       <c r="I81" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>120.26763000000017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>109.09573511615019</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6354,15 +6388,15 @@
       <c r="G82" s="2">
         <v>-35.393999999999998</v>
       </c>
-      <c r="H82" s="6">
-        <v>-33.978881999999999</v>
+      <c r="H82" s="37">
+        <v>-33.436853547664498</v>
       </c>
       <c r="I82" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.4151179999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9571464523355004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6384,15 +6418,15 @@
       <c r="G83" s="2">
         <v>1.06</v>
       </c>
-      <c r="H83" s="6">
-        <v>-3.4156900000000001</v>
+      <c r="H83" s="37">
+        <v>4.1081212667060099</v>
       </c>
       <c r="I83" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>4.4756900000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.0481212667060098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6414,15 +6448,15 @@
       <c r="G84" s="2">
         <v>8.3360000000000003</v>
       </c>
-      <c r="H84" s="6">
-        <v>-18.503910000000001</v>
+      <c r="H84" s="37">
+        <v>-19.8906535943573</v>
       </c>
       <c r="I84" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>26.839910000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28.226653594357302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6444,15 +6478,15 @@
       <c r="G85" s="2">
         <v>5812.2720000000008</v>
       </c>
-      <c r="H85" s="6">
-        <v>5488.1522640000003</v>
+      <c r="H85" s="37">
+        <v>5493.2832158364999</v>
       </c>
       <c r="I85" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>324.11973600000056</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>318.9887841635009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6474,15 +6508,15 @@
       <c r="G86" s="2">
         <v>131</v>
       </c>
-      <c r="H86" s="6">
-        <v>89.705385000000007</v>
+      <c r="H86" s="37">
+        <v>84.278790980573902</v>
       </c>
       <c r="I86" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>41.294614999999993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46.721209019426098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6504,15 +6538,15 @@
       <c r="G87" s="2">
         <v>5040.7380000000003</v>
       </c>
-      <c r="H87" s="6">
-        <v>4989.7204739999997</v>
+      <c r="H87" s="37">
+        <v>5020.7515205238196</v>
       </c>
       <c r="I87" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>51.017526000000544</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19.986479476180648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6534,15 +6568,15 @@
       <c r="G88" s="2">
         <v>208.87199999999999</v>
       </c>
-      <c r="H88" s="6">
-        <v>191.968333</v>
+      <c r="H88" s="37">
+        <v>184.10108109958901</v>
       </c>
       <c r="I88" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>16.903666999999984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24.770918900410976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6564,15 +6598,15 @@
       <c r="G89" s="2">
         <v>12401.531999999999</v>
       </c>
-      <c r="H89" s="6">
-        <v>12366.501758</v>
+      <c r="H89" s="37">
+        <v>12100.7498079492</v>
       </c>
       <c r="I89" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>35.030241999998907</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300.78219205079949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6594,15 +6628,15 @@
       <c r="G90" s="2">
         <v>5732.8559999999998</v>
       </c>
-      <c r="H90" s="6">
-        <v>5877.050647</v>
+      <c r="H90" s="37">
+        <v>5925.6192275040803</v>
       </c>
       <c r="I90" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>144.19464700000026</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192.76322750408053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6624,15 +6658,15 @@
       <c r="G91" s="2">
         <v>531.45600000000002</v>
       </c>
-      <c r="H91" s="6">
-        <v>522.84736099999998</v>
+      <c r="H91" s="37">
+        <v>510.309529947074</v>
       </c>
       <c r="I91" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>8.6086390000000392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21.14647005292602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6654,15 +6688,15 @@
       <c r="G92" s="2">
         <v>-18.972000000000001</v>
       </c>
-      <c r="H92" s="6">
-        <v>-18.203792</v>
+      <c r="H92" s="37">
+        <v>-18.1731339350418</v>
       </c>
       <c r="I92" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.76820800000000133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.79886606495820089</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6684,15 +6718,15 @@
       <c r="G93" s="2">
         <v>1694.3280000000002</v>
       </c>
-      <c r="H93" s="6">
-        <v>1726.65428</v>
+      <c r="H93" s="37">
+        <v>1719.62247208599</v>
       </c>
       <c r="I93" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>32.32627999999977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25.29447208598981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6714,15 +6748,15 @@
       <c r="G94" s="2">
         <v>-42.08</v>
       </c>
-      <c r="H94" s="6">
-        <v>-39.894540999999997</v>
+      <c r="H94" s="37">
+        <v>-39.160748402397999</v>
       </c>
       <c r="I94" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>2.1854590000000016</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.919251597601999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6744,15 +6778,15 @@
       <c r="G95" s="2">
         <v>2642.3040000000001</v>
       </c>
-      <c r="H95" s="6">
-        <v>2603.1291139999998</v>
+      <c r="H95" s="37">
+        <v>2617.4361812840202</v>
       </c>
       <c r="I95" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>39.174886000000242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24.867818715979865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6774,15 +6808,15 @@
       <c r="G96" s="2">
         <v>8200</v>
       </c>
-      <c r="H96" s="6">
-        <v>8349.3516830000008</v>
+      <c r="H96" s="37">
+        <v>8413.2525902293091</v>
       </c>
       <c r="I96" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>149.35168300000078</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213.25259022930913</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6804,15 +6838,15 @@
       <c r="G97" s="2">
         <v>1091</v>
       </c>
-      <c r="H97" s="6">
-        <v>1052.2676300000001</v>
+      <c r="H97" s="37">
+        <v>1037.3977544053801</v>
       </c>
       <c r="I97" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>38.732369999999946</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53.602245594619944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6834,15 +6868,15 @@
       <c r="G98" s="2">
         <v>3204.3319999999999</v>
       </c>
-      <c r="H98" s="6">
-        <v>3548.717318</v>
+      <c r="H98" s="37">
+        <v>3591.4497710692499</v>
       </c>
       <c r="I98" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>344.3853180000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>387.11777106925001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6864,15 +6898,15 @@
       <c r="G99" s="2">
         <v>-31.14</v>
       </c>
-      <c r="H99" s="6">
-        <v>-30.03511</v>
+      <c r="H99" s="37">
+        <v>-29.6209236445088</v>
       </c>
       <c r="I99" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>1.104890000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.519076355491201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6894,15 +6928,15 @@
       <c r="G100" s="2">
         <v>-19.96</v>
       </c>
-      <c r="H100" s="6">
-        <v>-20.175678000000001</v>
+      <c r="H100" s="37">
+        <v>-20.0810988866196</v>
       </c>
       <c r="I100" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>0.21567800000000048</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.121098886619599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6924,16 +6958,16 @@
       <c r="G101" s="2">
         <v>405.81600000000003</v>
       </c>
-      <c r="H101" s="6">
-        <v>289.57400899999999</v>
+      <c r="H101" s="37">
+        <v>222.83129072215999</v>
       </c>
       <c r="I101" s="6">
         <f>ABS(Table1[[#This Row],[Y_P]]-Table1[[#This Row],[Y]])</f>
-        <v>116.24199100000004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+        <v>182.98470927784004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="34">
         <v>101</v>
       </c>
       <c r="B102" s="1">
@@ -6957,8 +6991,8 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:9">
+      <c r="A103" s="34">
         <v>102</v>
       </c>
       <c r="B103" s="1">
@@ -6982,8 +7016,8 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:9">
+      <c r="A104" s="34">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -7007,8 +7041,8 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:9">
+      <c r="A105" s="34">
         <v>104</v>
       </c>
       <c r="B105" s="1">
@@ -7032,8 +7066,8 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:9">
+      <c r="A106" s="34">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -7057,8 +7091,8 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:9">
+      <c r="A107" s="34">
         <v>106</v>
       </c>
       <c r="B107" s="1">
@@ -7082,8 +7116,8 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:9">
+      <c r="A108" s="34">
         <v>107</v>
       </c>
       <c r="B108" s="1">
@@ -7107,8 +7141,8 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:9">
+      <c r="A109" s="34">
         <v>108</v>
       </c>
       <c r="B109" s="1">
@@ -7132,8 +7166,8 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:9">
+      <c r="A110" s="34">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -7157,8 +7191,8 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:9">
+      <c r="A111" s="34">
         <v>110</v>
       </c>
       <c r="B111" s="1">
@@ -7182,8 +7216,8 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:9">
+      <c r="A112" s="34">
         <v>111</v>
       </c>
       <c r="B112" s="1">
@@ -7207,8 +7241,8 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:9">
+      <c r="A113" s="34">
         <v>112</v>
       </c>
       <c r="B113" s="1">
@@ -7232,8 +7266,8 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114" spans="1:9">
+      <c r="A114" s="34">
         <v>113</v>
       </c>
       <c r="B114" s="1">
@@ -7257,8 +7291,8 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115" spans="1:9">
+      <c r="A115" s="34">
         <v>114</v>
       </c>
       <c r="B115" s="1">
@@ -7282,8 +7316,8 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116" spans="1:9">
+      <c r="A116" s="34">
         <v>115</v>
       </c>
       <c r="B116" s="1">
@@ -7307,8 +7341,8 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117" spans="1:9">
+      <c r="A117" s="34">
         <v>116</v>
       </c>
       <c r="B117" s="1">
@@ -7332,8 +7366,8 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118" spans="1:9">
+      <c r="A118" s="34">
         <v>117</v>
       </c>
       <c r="B118" s="1">
@@ -7357,8 +7391,8 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:9">
+      <c r="A119" s="34">
         <v>118</v>
       </c>
       <c r="B119" s="1">
@@ -7382,8 +7416,8 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:9">
+      <c r="A120" s="34">
         <v>119</v>
       </c>
       <c r="B120" s="1">
@@ -7407,8 +7441,8 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:9">
+      <c r="A121" s="34">
         <v>120</v>
       </c>
       <c r="B121" s="1">
@@ -7432,51 +7466,25 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122"/>
+      <c r="G122" s="38"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2">
-        <f>SUM(Table1[ABSE])/100</f>
-        <v>59.692689610000009</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9">
       <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:9">
       <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I125:I1048576 I1 I102:I122">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G63:G101">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:E121">
+  <conditionalFormatting sqref="B2:F121">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7486,15 +7494,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G101">
+  <conditionalFormatting sqref="G2:G121">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percent" val="20"/>
         <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color theme="4"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7514,9 +7520,9 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7536,7 +7542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>88</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>59</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>43</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>95</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>48</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -7662,7 +7668,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>65</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>66</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>84</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>64</v>
       </c>
@@ -7746,7 +7752,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -7788,7 +7794,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -7809,7 +7815,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>73</v>
       </c>
@@ -7830,7 +7836,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -7851,7 +7857,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>97</v>
       </c>
@@ -7872,7 +7878,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>77</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>94</v>
       </c>
@@ -7956,7 +7962,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>75</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -8019,7 +8025,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>92</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>100</v>
       </c>
@@ -8124,7 +8130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="5">
         <v>8</v>
       </c>
@@ -8145,7 +8151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>56</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
